--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888C8C9-AC00-4D02-A356-BEA07188BCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34105301-8672-4123-9E88-0E226DD85A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -156,12 +156,6 @@
     <t xml:space="preserve">OSCAR </t>
   </si>
   <si>
-    <t>RED DE ACIENTO WS150</t>
-  </si>
-  <si>
-    <t>BALERO 6301</t>
-  </si>
-  <si>
     <t>PASTAS DE CLUTH DS150</t>
   </si>
   <si>
@@ -171,34 +165,19 @@
     <t xml:space="preserve">BUJIA PARA PULSAR 200NS </t>
   </si>
   <si>
-    <t>ESTRELLA DE FT150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NASAKI </t>
-  </si>
-  <si>
     <t xml:space="preserve">ACEITE YAMALUBE </t>
   </si>
   <si>
     <t>DESCONOCZCO</t>
   </si>
   <si>
-    <t>REGULADOR 250Z</t>
-  </si>
-  <si>
     <t>MANGUERA DE FRENO AT110</t>
   </si>
   <si>
-    <t>PEDAL DE ARRANQUE FT150</t>
-  </si>
-  <si>
     <t>CADENA REFORZADA CON ORING 428</t>
   </si>
   <si>
-    <t>MANDO DERECHO FT150</t>
-  </si>
-  <si>
-    <t>LLANTA 120-80-18</t>
+    <t xml:space="preserve">PORTAFUSIBLES </t>
   </si>
 </sst>
 </file>
@@ -659,7 +638,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,12 +944,8 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
@@ -984,12 +959,8 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="I19" s="1"/>
@@ -1002,7 +973,7 @@
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>2</v>
@@ -1019,7 +990,7 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>2</v>
@@ -1036,7 +1007,7 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
@@ -1052,12 +1023,8 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
       <c r="I23" s="1"/>
@@ -1070,10 +1037,10 @@
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
@@ -1086,12 +1053,8 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="I25" s="1"/>
@@ -1104,7 +1067,7 @@
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>2</v>
@@ -1120,12 +1083,8 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
       <c r="I27" s="1"/>
@@ -1137,12 +1096,8 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="I28" s="1"/>
@@ -1155,7 +1110,7 @@
     </row>
     <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -1167,7 +1122,7 @@
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>2</v>
@@ -1178,12 +1133,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
       <c r="I31" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34105301-8672-4123-9E88-0E226DD85A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3CECF-CF1E-4F53-9BEF-EBFF08CEC58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -144,15 +144,9 @@
     <t>SELENOIDE FT150</t>
   </si>
   <si>
-    <t>SLAIDER DE DM200</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
-    <t>LLANTA 140-70-17</t>
-  </si>
-  <si>
     <t xml:space="preserve">OSCAR </t>
   </si>
   <si>
@@ -165,12 +159,6 @@
     <t xml:space="preserve">BUJIA PARA PULSAR 200NS </t>
   </si>
   <si>
-    <t xml:space="preserve">ACEITE YAMALUBE </t>
-  </si>
-  <si>
-    <t>DESCONOCZCO</t>
-  </si>
-  <si>
     <t>MANGUERA DE FRENO AT110</t>
   </si>
   <si>
@@ -178,6 +166,27 @@
   </si>
   <si>
     <t xml:space="preserve">PORTAFUSIBLES </t>
+  </si>
+  <si>
+    <t>CARBURADOR DS150</t>
+  </si>
+  <si>
+    <t>SLAIDER DM200</t>
+  </si>
+  <si>
+    <t>ACEITE YAMALUBE</t>
+  </si>
+  <si>
+    <t>DESCONOZCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUJIA PULSAR </t>
+  </si>
+  <si>
+    <t>AUXILIAR BUHO</t>
+  </si>
+  <si>
+    <t>BANDA 743-20-30</t>
   </si>
 </sst>
 </file>
@@ -638,7 +647,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +754,9 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
@@ -781,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>28</v>
@@ -849,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -870,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
@@ -884,8 +895,12 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="F14" s="10" t="s">
         <v>36</v>
@@ -900,7 +915,7 @@
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
@@ -916,8 +931,12 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
       <c r="I16" s="1"/>
@@ -930,9 +949,11 @@
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="I17" s="1"/>
@@ -944,10 +965,14 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1"/>
       <c r="I18" s="1"/>
@@ -959,8 +984,12 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="I19" s="1"/>
@@ -973,7 +1002,7 @@
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>2</v>
@@ -990,7 +1019,7 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>2</v>
@@ -1006,10 +1035,10 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
@@ -1023,8 +1052,12 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
       <c r="I23" s="1"/>
@@ -1037,11 +1070,9 @@
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="I24" s="1"/>
@@ -1066,12 +1097,8 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" s="1"/>
@@ -1109,24 +1136,16 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="I30" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3CECF-CF1E-4F53-9BEF-EBFF08CEC58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1379F66-66BF-4F23-A856-C38549256188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>BANDA 743-20-30</t>
+  </si>
+  <si>
+    <t>PASTAS DE CLUTH PULSAR 200NS</t>
+  </si>
+  <si>
+    <t>CHICOTE DE VELOCIMETRO DM200</t>
+  </si>
+  <si>
+    <t>CENTRIFUJO DS150</t>
+  </si>
+  <si>
+    <t>CADENA 520 SENCILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUXILIARES </t>
   </si>
 </sst>
 </file>
@@ -647,7 +662,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,8 +1099,12 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="I25" s="1"/>
@@ -1097,8 +1116,12 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" s="1"/>
@@ -1110,8 +1133,12 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
       <c r="I27" s="1"/>
@@ -1123,8 +1150,12 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="I28" s="1"/>
@@ -1136,8 +1167,12 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="I29" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1379F66-66BF-4F23-A856-C38549256188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC92C11-4CA2-40D7-8646-AAF9FAA359D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -78,15 +78,9 @@
     <t>CABLE PARA BUJIA CROXMAX 250</t>
   </si>
   <si>
-    <t>EMPAQUE CUBIERTA DERECHA FT</t>
-  </si>
-  <si>
     <t>CUBRE TANQUES</t>
   </si>
   <si>
-    <t>PARADOR LATERAL RT200</t>
-  </si>
-  <si>
     <t>LLANTA PARA CUATRIMOTO TRASERA 20X10X10</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t xml:space="preserve">VARIAS COASA </t>
   </si>
   <si>
-    <t>BALATA TAMBOR CHICO  DS150</t>
-  </si>
-  <si>
     <t>Pedido</t>
   </si>
   <si>
@@ -153,12 +144,6 @@
     <t>PASTAS DE CLUTH DS150</t>
   </si>
   <si>
-    <t>PASTAS DE CLUTH FT180/FT200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUJIA PARA PULSAR 200NS </t>
-  </si>
-  <si>
     <t>MANGUERA DE FRENO AT110</t>
   </si>
   <si>
@@ -168,40 +153,43 @@
     <t xml:space="preserve">PORTAFUSIBLES </t>
   </si>
   <si>
-    <t>CARBURADOR DS150</t>
-  </si>
-  <si>
-    <t>SLAIDER DM200</t>
-  </si>
-  <si>
-    <t>ACEITE YAMALUBE</t>
-  </si>
-  <si>
-    <t>DESCONOZCO</t>
-  </si>
-  <si>
     <t xml:space="preserve">BUJIA PULSAR </t>
   </si>
   <si>
-    <t>AUXILIAR BUHO</t>
-  </si>
-  <si>
-    <t>BANDA 743-20-30</t>
-  </si>
-  <si>
-    <t>PASTAS DE CLUTH PULSAR 200NS</t>
-  </si>
-  <si>
-    <t>CHICOTE DE VELOCIMETRO DM200</t>
-  </si>
-  <si>
-    <t>CENTRIFUJO DS150</t>
-  </si>
-  <si>
     <t>CADENA 520 SENCILLA</t>
   </si>
   <si>
-    <t xml:space="preserve">AUXILIARES </t>
+    <t>PEDAL DE CAMBIOS FT150</t>
+  </si>
+  <si>
+    <t>FOCO DE STOP</t>
+  </si>
+  <si>
+    <t>WINMEX</t>
+  </si>
+  <si>
+    <t>GOMAS DE IMPACTO HONDA CARGO</t>
+  </si>
+  <si>
+    <t>ACEITE AKRON</t>
+  </si>
+  <si>
+    <t>PEDAL DE ARRANQUE DS150</t>
+  </si>
+  <si>
+    <t>LLAVE DE GASOLINA WS150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOGLES </t>
+  </si>
+  <si>
+    <t>MERCADO LIBRE</t>
+  </si>
+  <si>
+    <t>CONTRAPESO</t>
+  </si>
+  <si>
+    <t>ESTATOR DS150</t>
   </si>
 </sst>
 </file>
@@ -231,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -326,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -344,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +657,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -695,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -704,37 +699,33 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="L6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="O6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="P6" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -749,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
@@ -769,22 +760,20 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
@@ -807,13 +796,13 @@
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
@@ -828,7 +817,7 @@
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -850,7 +839,7 @@
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
@@ -868,14 +857,10 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -889,17 +874,17 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -910,15 +895,15 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -929,10 +914,10 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
@@ -947,7 +932,7 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
@@ -963,10 +948,10 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
@@ -980,14 +965,14 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>50</v>
+      <c r="B18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1"/>
       <c r="I18" s="1"/>
@@ -999,12 +984,8 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="I19" s="1"/>
@@ -1020,7 +1001,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
@@ -1032,11 +1013,11 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="7" t="s">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
@@ -1050,12 +1031,10 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="I22" s="1"/>
@@ -1068,10 +1047,10 @@
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
@@ -1083,11 +1062,13 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="7"/>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="I24" s="1"/>
@@ -1099,10 +1080,10 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1"/>
@@ -1117,10 +1098,10 @@
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
@@ -1134,7 +1115,7 @@
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -1150,10 +1131,10 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
@@ -1166,20 +1147,16 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>6</v>
-      </c>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC92C11-4CA2-40D7-8646-AAF9FAA359D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0399A91B-8C3E-49CC-BC2B-7EAFCE407C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>ESTATOR DS150</t>
+  </si>
+  <si>
+    <t>DIRECCIONALES DE FT150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 DE OCTUBRE </t>
   </si>
 </sst>
 </file>
@@ -293,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -316,11 +325,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -339,7 +374,12 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,13 +697,14 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.140625" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" customWidth="1"/>
     <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
@@ -680,7 +721,10 @@
       <c r="D5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -707,7 +751,10 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="1"/>
@@ -736,7 +783,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -763,7 +813,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="10" t="s">
@@ -792,7 +845,10 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -823,7 +879,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1"/>
@@ -845,7 +904,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="1"/>
@@ -862,7 +924,10 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="1"/>
@@ -883,7 +948,10 @@
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="1"/>
@@ -902,7 +970,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="1"/>
@@ -921,7 +992,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="20"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="L15" s="1"/>
@@ -938,7 +1012,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="20"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1"/>
@@ -955,7 +1032,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="20"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="L17" s="1"/>
@@ -974,7 +1054,10 @@
       <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="20"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
@@ -987,7 +1070,10 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="20"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
@@ -1004,7 +1090,10 @@
         <v>46</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="20"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="L20" s="1"/>
@@ -1021,7 +1110,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="20"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
@@ -1036,7 +1128,10 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="20"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
@@ -1053,7 +1148,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="20"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
@@ -1070,7 +1168,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="20"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
@@ -1087,7 +1188,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="20"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="L25" s="1"/>
@@ -1104,7 +1208,10 @@
         <v>52</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="20"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="L26" s="1"/>
@@ -1121,7 +1228,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="20"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
@@ -1131,14 +1241,17 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="20"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
@@ -1148,10 +1261,17 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="20"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
@@ -1159,7 +1279,8 @@
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="20"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
@@ -1167,7 +1288,8 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="20"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
@@ -1175,7 +1297,8 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="20"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
@@ -1183,7 +1306,8 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="20"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
@@ -1191,7 +1315,8 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="20"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
@@ -1199,7 +1324,8 @@
       <c r="B35" s="8"/>
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="20"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -1207,7 +1333,8 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="20"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
@@ -1215,7 +1342,8 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="20"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
@@ -1223,7 +1351,8 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="20"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
@@ -1231,7 +1360,8 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="20"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
@@ -1239,7 +1369,8 @@
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="20"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
@@ -1247,7 +1378,8 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="20"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
@@ -1255,7 +1387,8 @@
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="20"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
@@ -1263,7 +1396,8 @@
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="20"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
@@ -1271,7 +1405,8 @@
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="20"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
@@ -1279,7 +1414,8 @@
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="20"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
@@ -1287,7 +1423,8 @@
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="20"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
@@ -1295,7 +1432,8 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="20"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
@@ -1303,83 +1441,87 @@
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D52" s="23"/>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0399A91B-8C3E-49CC-BC2B-7EAFCE407C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -171,9 +170,6 @@
     <t>GOMAS DE IMPACTO HONDA CARGO</t>
   </si>
   <si>
-    <t>ACEITE AKRON</t>
-  </si>
-  <si>
     <t>PEDAL DE ARRANQUE DS150</t>
   </si>
   <si>
@@ -199,12 +195,18 @@
   </si>
   <si>
     <t xml:space="preserve">14 DE OCTUBRE </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Si/Mercado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -351,11 +353,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -375,11 +390,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +719,8 @@
     <col min="2" max="2" width="48.140625" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
     <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="34.5703125" customWidth="1"/>
@@ -722,9 +737,9 @@
         <v>28</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -752,13 +767,17 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="L6" s="4" t="s">
         <v>21</v>
       </c>
@@ -784,16 +803,16 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
+      <c r="I7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>26</v>
@@ -814,16 +833,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>3</v>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>27</v>
@@ -846,17 +865,13 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="19"/>
       <c r="L9" s="1" t="s">
         <v>26</v>
       </c>
@@ -878,11 +893,13 @@
       <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1"/>
@@ -903,11 +920,13 @@
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="1"/>
@@ -925,9 +944,9 @@
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="1"/>
@@ -949,9 +968,9 @@
         <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="1"/>
@@ -969,11 +988,13 @@
       <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="1"/>
@@ -993,9 +1014,9 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="L15" s="1"/>
@@ -1013,9 +1034,9 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1"/>
@@ -1031,11 +1052,13 @@
       <c r="C17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="L17" s="1"/>
@@ -1055,9 +1078,9 @@
         <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
@@ -1067,13 +1090,13 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
@@ -1091,9 +1114,9 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="L20" s="1"/>
@@ -1109,11 +1132,13 @@
       <c r="C21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
@@ -1123,15 +1148,13 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="7"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
@@ -1142,16 +1165,18 @@
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
@@ -1167,11 +1192,13 @@
       <c r="C24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
@@ -1182,16 +1209,18 @@
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="L25" s="1"/>
@@ -1202,16 +1231,16 @@
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="L26" s="1"/>
@@ -1222,16 +1251,16 @@
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
@@ -1242,16 +1271,16 @@
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
@@ -1262,16 +1291,16 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
@@ -1280,7 +1309,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="20"/>
+      <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
@@ -1289,7 +1318,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="20"/>
+      <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
@@ -1298,7 +1327,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="20"/>
+      <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
@@ -1307,7 +1336,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="20"/>
+      <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
@@ -1316,7 +1345,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="20"/>
+      <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
@@ -1325,7 +1354,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -1334,7 +1363,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="20"/>
+      <c r="G36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
@@ -1343,7 +1372,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="20"/>
+      <c r="G37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
@@ -1352,7 +1381,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="20"/>
+      <c r="G38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
@@ -1361,7 +1390,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="20"/>
+      <c r="G39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
@@ -1370,7 +1399,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="20"/>
+      <c r="G40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
@@ -1379,7 +1408,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="20"/>
+      <c r="G41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
@@ -1388,7 +1417,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="20"/>
+      <c r="G42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
@@ -1397,7 +1426,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="20"/>
+      <c r="G43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
@@ -1406,7 +1435,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="20"/>
+      <c r="G44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
@@ -1415,7 +1444,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="20"/>
+      <c r="G45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
@@ -1424,7 +1453,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="20"/>
+      <c r="G46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
@@ -1433,7 +1462,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="20"/>
+      <c r="G47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
@@ -1464,7 +1493,7 @@
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="23"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
@@ -1768,5 +1797,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis\Documents\GitHub\Motozom\cosas por pedir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CEB088-E0AD-4F6D-BBEA-9B5141A1BC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -146,36 +147,18 @@
     <t>MANGUERA DE FRENO AT110</t>
   </si>
   <si>
-    <t>CADENA REFORZADA CON ORING 428</t>
-  </si>
-  <si>
     <t xml:space="preserve">PORTAFUSIBLES </t>
   </si>
   <si>
     <t xml:space="preserve">BUJIA PULSAR </t>
   </si>
   <si>
-    <t>CADENA 520 SENCILLA</t>
-  </si>
-  <si>
-    <t>PEDAL DE CAMBIOS FT150</t>
-  </si>
-  <si>
     <t>FOCO DE STOP</t>
   </si>
   <si>
     <t>WINMEX</t>
   </si>
   <si>
-    <t>GOMAS DE IMPACTO HONDA CARGO</t>
-  </si>
-  <si>
-    <t>PEDAL DE ARRANQUE DS150</t>
-  </si>
-  <si>
-    <t>LLAVE DE GASOLINA WS150</t>
-  </si>
-  <si>
     <t xml:space="preserve">GOOGLES </t>
   </si>
   <si>
@@ -200,13 +183,58 @@
     <t>Si</t>
   </si>
   <si>
-    <t>Si/Mercado</t>
+    <t xml:space="preserve">TASA DE DIRECCION 150Z </t>
+  </si>
+  <si>
+    <t>15 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>CALABERA DE FT125</t>
+  </si>
+  <si>
+    <t>16 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>si/Mercado</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>BUJIAS C7</t>
+  </si>
+  <si>
+    <t>0SCAR</t>
+  </si>
+  <si>
+    <t>ARNES DE CDI FT150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 DE OCTUBRE </t>
+  </si>
+  <si>
+    <t>CABLE DE BACTERIA ROJO Y NEGRO</t>
+  </si>
+  <si>
+    <t>BRAZO ADICIONADOR CLTUH FT150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NASAKO/WINMEX </t>
+  </si>
+  <si>
+    <t>BANDA 743-20-30</t>
+  </si>
+  <si>
+    <t>18 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>BAYONETA FT150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,11 +417,11 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
@@ -737,7 +765,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
@@ -767,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
@@ -803,7 +831,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -829,17 +857,19 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>37</v>
@@ -860,18 +890,26 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="19"/>
+      <c r="I9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>26</v>
       </c>
@@ -887,17 +925,17 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -914,17 +952,17 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -938,13 +976,15 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -958,17 +998,15 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>19</v>
@@ -983,16 +1021,16 @@
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>33</v>
@@ -1006,15 +1044,17 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
@@ -1027,14 +1067,14 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
@@ -1046,17 +1086,15 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1068,17 +1106,15 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
@@ -1089,12 +1125,16 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1106,15 +1146,15 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>45</v>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1125,18 +1165,16 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="9" t="s">
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1148,11 +1186,15 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1164,17 +1206,15 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1186,17 +1226,15 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
@@ -1208,17 +1246,15 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1230,15 +1266,15 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>51</v>
+      <c r="B26" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
@@ -1250,16 +1286,10 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1270,16 +1300,10 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1290,16 +1314,10 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1493,7 +1511,7 @@
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="20"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CEB088-E0AD-4F6D-BBEA-9B5141A1BC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F10155-6527-4210-9F11-A85B1A185F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -81,9 +81,6 @@
     <t>CUBRE TANQUES</t>
   </si>
   <si>
-    <t>LLANTA PARA CUATRIMOTO TRASERA 20X10X10</t>
-  </si>
-  <si>
     <t>POSAPIE TRASEREO FT200</t>
   </si>
   <si>
@@ -123,15 +120,9 @@
     <t>OSCAR</t>
   </si>
   <si>
-    <t>GOMAS DE IMPACTO FT150</t>
-  </si>
-  <si>
     <t>HORQUILLA TRASERA VENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">CADENA 520 CON ORING REFORZADA </t>
-  </si>
-  <si>
     <t>SELENOIDE FT150</t>
   </si>
   <si>
@@ -141,12 +132,6 @@
     <t xml:space="preserve">OSCAR </t>
   </si>
   <si>
-    <t>PASTAS DE CLUTH DS150</t>
-  </si>
-  <si>
-    <t>MANGUERA DE FRENO AT110</t>
-  </si>
-  <si>
     <t xml:space="preserve">PORTAFUSIBLES </t>
   </si>
   <si>
@@ -159,30 +144,12 @@
     <t>WINMEX</t>
   </si>
   <si>
-    <t xml:space="preserve">GOOGLES </t>
-  </si>
-  <si>
-    <t>MERCADO LIBRE</t>
-  </si>
-  <si>
-    <t>CONTRAPESO</t>
-  </si>
-  <si>
-    <t>ESTATOR DS150</t>
-  </si>
-  <si>
-    <t>DIRECCIONALES DE FT150</t>
-  </si>
-  <si>
     <t xml:space="preserve">FECHA </t>
   </si>
   <si>
     <t xml:space="preserve">14 DE OCTUBRE </t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t xml:space="preserve">TASA DE DIRECCION 150Z </t>
   </si>
   <si>
@@ -195,9 +162,6 @@
     <t>16 DE OCTUBRE</t>
   </si>
   <si>
-    <t>si/Mercado</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
@@ -229,6 +193,33 @@
   </si>
   <si>
     <t>BAYONETA FT150</t>
+  </si>
+  <si>
+    <t>MANDO DERECHO WS100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 DE OCTUBE </t>
+  </si>
+  <si>
+    <t>MANIJA DE 125Z DERECHA SOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILA PARA CUATRIMOTO 12N9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 DE OCTUBRE </t>
+  </si>
+  <si>
+    <t>DISCO DELANTERO WS150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED PARA CASCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADENA DE DISTRIBUCCION HONDA CARGO </t>
+  </si>
+  <si>
+    <t>24 DE OCTUBRE</t>
   </si>
 </sst>
 </file>
@@ -739,7 +730,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
@@ -777,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -792,34 +783,34 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="P6" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -831,19 +822,19 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
@@ -863,19 +854,19 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
@@ -888,30 +879,30 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
@@ -925,17 +916,17 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>2</v>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -952,17 +943,15 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -976,15 +965,15 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -999,17 +988,17 @@
     </row>
     <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1020,20 +1009,18 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1043,18 +1030,16 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
@@ -1066,15 +1051,15 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>44</v>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
@@ -1087,14 +1072,14 @@
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1106,15 +1091,15 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
@@ -1126,15 +1111,15 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1146,15 +1131,15 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1167,14 +1152,14 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1187,14 +1172,14 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1207,14 +1192,14 @@
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1226,16 +1211,10 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1246,16 +1225,10 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>2</v>
-      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1266,16 +1239,10 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>2</v>
-      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F10155-6527-4210-9F11-A85B1A185F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D576C9A2-8BE3-40D5-8ECF-9B5553D49C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -138,24 +138,12 @@
     <t xml:space="preserve">BUJIA PULSAR </t>
   </si>
   <si>
-    <t>FOCO DE STOP</t>
-  </si>
-  <si>
-    <t>WINMEX</t>
-  </si>
-  <si>
     <t xml:space="preserve">FECHA </t>
   </si>
   <si>
     <t xml:space="preserve">14 DE OCTUBRE </t>
   </si>
   <si>
-    <t xml:space="preserve">TASA DE DIRECCION 150Z </t>
-  </si>
-  <si>
-    <t>15 DE OCTUBRE</t>
-  </si>
-  <si>
     <t>CALABERA DE FT125</t>
   </si>
   <si>
@@ -174,27 +162,6 @@
     <t>ARNES DE CDI FT150</t>
   </si>
   <si>
-    <t xml:space="preserve">17 DE OCTUBRE </t>
-  </si>
-  <si>
-    <t>CABLE DE BACTERIA ROJO Y NEGRO</t>
-  </si>
-  <si>
-    <t>BRAZO ADICIONADOR CLTUH FT150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NASAKO/WINMEX </t>
-  </si>
-  <si>
-    <t>BANDA 743-20-30</t>
-  </si>
-  <si>
-    <t>18 DE OCTUBRE</t>
-  </si>
-  <si>
-    <t>BAYONETA FT150</t>
-  </si>
-  <si>
     <t>MANDO DERECHO WS100</t>
   </si>
   <si>
@@ -220,6 +187,42 @@
   </si>
   <si>
     <t>24 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUXILIARES BUHO EN PAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 DE OCTUBRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCIONALES UNIVERSALES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGURO DE PIÑON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 DE OCTUBRE </t>
+  </si>
+  <si>
+    <t>DISCO TRASERO 250Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 DE OCTUBRE </t>
+  </si>
+  <si>
+    <t>RED DE ACIENTO WS150</t>
+  </si>
+  <si>
+    <t>VALVULA DE ESCAPE FT250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALAA DE DISCO 170Z </t>
+  </si>
+  <si>
+    <t>31 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>BALATA DE DISCO DS150</t>
   </si>
 </sst>
 </file>
@@ -730,7 +733,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
@@ -786,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
@@ -822,7 +825,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -854,7 +857,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -890,16 +893,16 @@
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>25</v>
@@ -917,16 +920,16 @@
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -944,14 +947,14 @@
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -966,14 +969,14 @@
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -986,16 +989,16 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>18</v>
@@ -1009,8 +1012,8 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>50</v>
+      <c r="B14" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>2</v>
@@ -1030,12 +1033,12 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>52</v>
+    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -1051,15 +1054,15 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>53</v>
+      <c r="B16" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
@@ -1072,14 +1075,14 @@
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1090,16 +1093,16 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>2</v>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
@@ -1110,16 +1113,16 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1131,15 +1134,15 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>59</v>
+      <c r="B20" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1152,7 +1155,7 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>2</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>2</v>
@@ -1190,16 +1193,16 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="21" t="s">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1210,11 +1213,17 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1225,10 +1234,16 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D576C9A2-8BE3-40D5-8ECF-9B5553D49C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCB640-30AE-49AA-828E-1214290EB0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -126,15 +126,9 @@
     <t>SELENOIDE FT150</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t xml:space="preserve">OSCAR </t>
   </si>
   <si>
-    <t xml:space="preserve">PORTAFUSIBLES </t>
-  </si>
-  <si>
     <t xml:space="preserve">BUJIA PULSAR </t>
   </si>
   <si>
@@ -168,54 +162,6 @@
     <t xml:space="preserve">22 DE OCTUBE </t>
   </si>
   <si>
-    <t>MANIJA DE 125Z DERECHA SOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILA PARA CUATRIMOTO 12N9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 DE OCTUBRE </t>
-  </si>
-  <si>
-    <t>DISCO DELANTERO WS150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED PARA CASCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADENA DE DISTRIBUCCION HONDA CARGO </t>
-  </si>
-  <si>
-    <t>24 DE OCTUBRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUXILIARES BUHO EN PAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 DE OCTUBRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRECCIONALES UNIVERSALES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGURO DE PIÑON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 DE OCTUBRE </t>
-  </si>
-  <si>
-    <t>DISCO TRASERO 250Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 DE OCTUBRE </t>
-  </si>
-  <si>
-    <t>RED DE ACIENTO WS150</t>
-  </si>
-  <si>
-    <t>VALVULA DE ESCAPE FT250</t>
-  </si>
-  <si>
     <t xml:space="preserve">BALAA DE DISCO 170Z </t>
   </si>
   <si>
@@ -223,6 +169,51 @@
   </si>
   <si>
     <t>BALATA DE DISCO DS150</t>
+  </si>
+  <si>
+    <t>ARO TRASERO DM200</t>
+  </si>
+  <si>
+    <t>05 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAPAS UNIVERSALES </t>
+  </si>
+  <si>
+    <t>NASKI</t>
+  </si>
+  <si>
+    <t>FILTRO DE AIRE DM200</t>
+  </si>
+  <si>
+    <t>06 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOCO DE DIRECCIONAL </t>
+  </si>
+  <si>
+    <t>NAAKI/WINMEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANDADO 520 </t>
+  </si>
+  <si>
+    <t>7 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUBRIO DE 3 PIEZAS </t>
+  </si>
+  <si>
+    <t>MERCADO LIBRE</t>
+  </si>
+  <si>
+    <t>TAPON DE ACEITE FT150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED DE CASCO </t>
   </si>
 </sst>
 </file>
@@ -252,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,12 +307,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,12 +395,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,7 +718,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
@@ -789,7 +774,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
@@ -825,7 +810,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -857,16 +842,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
@@ -883,26 +868,18 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>43</v>
+      <c r="I9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>25</v>
@@ -920,16 +897,16 @@
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -947,14 +924,14 @@
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -969,14 +946,14 @@
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -991,15 +968,13 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="G13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1012,15 +987,15 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>31</v>
@@ -1034,15 +1009,15 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
@@ -1054,11 +1029,11 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -1074,15 +1049,15 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>2</v>
+      <c r="B17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1093,16 +1068,16 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>6</v>
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
@@ -1113,16 +1088,16 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>56</v>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1134,15 +1109,15 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1154,15 +1129,15 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
+      <c r="E21" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1174,15 +1149,15 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>2</v>
+      <c r="B22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1194,15 +1169,11 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>2</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1214,16 +1185,10 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>2</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1234,16 +1199,10 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>2</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1308,7 +1267,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="22"/>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1317,7 +1276,7 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="15"/>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1493,7 +1452,7 @@
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="19"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCB640-30AE-49AA-828E-1214290EB0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18552F6A-91F7-4694-AA12-F502E3C8A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -201,9 +201,6 @@
     <t>7 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">MANUBRIO DE 3 PIEZAS </t>
   </si>
   <si>
@@ -214,6 +211,60 @@
   </si>
   <si>
     <t xml:space="preserve">RED DE CASCO </t>
+  </si>
+  <si>
+    <t>BALERO 6201</t>
+  </si>
+  <si>
+    <t>10DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>CINTA DE AISLAR</t>
+  </si>
+  <si>
+    <t>DESCONOCO</t>
+  </si>
+  <si>
+    <t>10 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>PASTAS DE CLUTH 250Z</t>
+  </si>
+  <si>
+    <t>CAMARA 110-90-18</t>
+  </si>
+  <si>
+    <t>11 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTRO DE ALTO FLUJO </t>
+  </si>
+  <si>
+    <t>BALERO 6001</t>
+  </si>
+  <si>
+    <t>12 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>MANIJA IZQUIERDA COMPLETA 150Z</t>
+  </si>
+  <si>
+    <t>PEDAL DE ARRANQUE DS150</t>
+  </si>
+  <si>
+    <t>13 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>LLANTA DELANTERA 21X-7-10</t>
+  </si>
+  <si>
+    <t>14 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>ABRAZADRA DE ESCAPE DS150</t>
+  </si>
+  <si>
+    <t>CADENA 530</t>
   </si>
 </sst>
 </file>
@@ -718,7 +769,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +1019,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>2</v>
@@ -1130,7 +1181,7 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>2</v>
@@ -1150,10 +1201,10 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>60</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -1169,11 +1220,15 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1185,10 +1240,16 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1199,10 +1260,16 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1213,10 +1280,16 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1227,10 +1300,16 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1241,10 +1320,16 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1255,46 +1340,74 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="20"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18552F6A-91F7-4694-AA12-F502E3C8A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F697E-8D9C-49D0-A1E2-C385F1F2DD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -36,9 +36,6 @@
     <t>NASAKI</t>
   </si>
   <si>
-    <t xml:space="preserve">ITALIKA </t>
-  </si>
-  <si>
     <t xml:space="preserve">LISTA DE COSAS NUEVAS </t>
   </si>
   <si>
@@ -114,24 +111,9 @@
     <t>No</t>
   </si>
   <si>
-    <t>FOCOS H6</t>
-  </si>
-  <si>
-    <t>OSCAR</t>
-  </si>
-  <si>
     <t>HORQUILLA TRASERA VENTO</t>
   </si>
   <si>
-    <t>SELENOIDE FT150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSCAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUJIA PULSAR </t>
-  </si>
-  <si>
     <t xml:space="preserve">FECHA </t>
   </si>
   <si>
@@ -141,60 +123,12 @@
     <t>CALABERA DE FT125</t>
   </si>
   <si>
-    <t>16 DE OCTUBRE</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>BUJIAS C7</t>
-  </si>
-  <si>
-    <t>0SCAR</t>
-  </si>
-  <si>
-    <t>ARNES DE CDI FT150</t>
-  </si>
-  <si>
-    <t>MANDO DERECHO WS100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 DE OCTUBE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALAA DE DISCO 170Z </t>
-  </si>
-  <si>
-    <t>31 DE OCTUBRE</t>
-  </si>
-  <si>
-    <t>BALATA DE DISCO DS150</t>
-  </si>
-  <si>
-    <t>ARO TRASERO DM200</t>
-  </si>
-  <si>
     <t>05 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">GRAPAS UNIVERSALES </t>
-  </si>
-  <si>
     <t>NASKI</t>
   </si>
   <si>
-    <t>FILTRO DE AIRE DM200</t>
-  </si>
-  <si>
-    <t>06 DE NOVIEMBRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCO DE DIRECCIONAL </t>
-  </si>
-  <si>
-    <t>NAAKI/WINMEX</t>
-  </si>
-  <si>
     <t xml:space="preserve">CANDADO 520 </t>
   </si>
   <si>
@@ -210,54 +144,18 @@
     <t>TAPON DE ACEITE FT150</t>
   </si>
   <si>
-    <t xml:space="preserve">RED DE CASCO </t>
-  </si>
-  <si>
     <t>BALERO 6201</t>
   </si>
   <si>
     <t>10DE NOVIEMBRE</t>
   </si>
   <si>
-    <t>CINTA DE AISLAR</t>
-  </si>
-  <si>
-    <t>DESCONOCO</t>
-  </si>
-  <si>
-    <t>10 DE NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>PASTAS DE CLUTH 250Z</t>
-  </si>
-  <si>
     <t>CAMARA 110-90-18</t>
   </si>
   <si>
     <t>11 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">FILTRO DE ALTO FLUJO </t>
-  </si>
-  <si>
-    <t>BALERO 6001</t>
-  </si>
-  <si>
-    <t>12 DE NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>MANIJA IZQUIERDA COMPLETA 150Z</t>
-  </si>
-  <si>
-    <t>PEDAL DE ARRANQUE DS150</t>
-  </si>
-  <si>
-    <t>13 DE NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>LLANTA DELANTERA 21X-7-10</t>
-  </si>
-  <si>
     <t>14 DE NOVIEMBRE</t>
   </si>
   <si>
@@ -265,6 +163,45 @@
   </si>
   <si>
     <t>CADENA 530</t>
+  </si>
+  <si>
+    <t>ARBOL DE LEVAS CROSMAX 250</t>
+  </si>
+  <si>
+    <t>19 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADENA 428 SENCILLA </t>
+  </si>
+  <si>
+    <t>ACEITE REPSOL</t>
+  </si>
+  <si>
+    <t>CADENA 428 CON ORING</t>
+  </si>
+  <si>
+    <t>21 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>VARILLAS IMPULSORA FT150/FT125</t>
+  </si>
+  <si>
+    <t>PASTAS DE CLUTH FT180</t>
+  </si>
+  <si>
+    <t>PASTAS DE CLUTH FZ 16</t>
+  </si>
+  <si>
+    <t>ARO DE RIND TRASERO DM200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTA DE AISLAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASCOS DIFERENTE SMODELOS </t>
+  </si>
+  <si>
+    <t>22 DE4 NOVIEMBRE</t>
   </si>
 </sst>
 </file>
@@ -769,7 +706,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,22 +729,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -816,64 +753,58 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="10"/>
       <c r="L6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="P6" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
@@ -888,24 +819,20 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
@@ -919,21 +846,23 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>41</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="17"/>
       <c r="L9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
@@ -948,19 +877,17 @@
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -975,17 +902,17 @@
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
+      <c r="E11" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -997,17 +924,17 @@
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
+      <c r="E12" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1017,17 +944,19 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>2</v>
+    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1037,19 +966,19 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="20" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1060,15 +989,15 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
@@ -1081,14 +1010,14 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
@@ -1101,14 +1030,12 @@
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1119,16 +1046,16 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="20" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
@@ -1139,16 +1066,16 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>55</v>
+    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1160,15 +1087,15 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>56</v>
+      <c r="B20" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="22" t="s">
-        <v>57</v>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1181,14 +1108,14 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="15" t="s">
-        <v>57</v>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1201,14 +1128,14 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1221,14 +1148,14 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1240,15 +1167,15 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>64</v>
+      <c r="B24" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
@@ -1261,14 +1188,14 @@
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1280,16 +1207,10 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1300,16 +1221,10 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1320,16 +1235,10 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1340,74 +1249,46 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>2</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="E30" s="22"/>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="E31" s="15"/>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="20"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1467,8 +1348,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="G40" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F697E-8D9C-49D0-A1E2-C385F1F2DD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797922CC-B26B-4CE1-8426-D187E347DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -120,15 +120,9 @@
     <t xml:space="preserve">14 DE OCTUBRE </t>
   </si>
   <si>
-    <t>CALABERA DE FT125</t>
-  </si>
-  <si>
     <t>05 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t>NASKI</t>
-  </si>
-  <si>
     <t xml:space="preserve">CANDADO 520 </t>
   </si>
   <si>
@@ -159,39 +153,15 @@
     <t>14 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t>ABRAZADRA DE ESCAPE DS150</t>
-  </si>
-  <si>
     <t>CADENA 530</t>
   </si>
   <si>
-    <t>ARBOL DE LEVAS CROSMAX 250</t>
-  </si>
-  <si>
     <t>19 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">CADENA 428 SENCILLA </t>
-  </si>
-  <si>
     <t>ACEITE REPSOL</t>
   </si>
   <si>
-    <t>CADENA 428 CON ORING</t>
-  </si>
-  <si>
-    <t>21 DE NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>VARILLAS IMPULSORA FT150/FT125</t>
-  </si>
-  <si>
-    <t>PASTAS DE CLUTH FT180</t>
-  </si>
-  <si>
-    <t>PASTAS DE CLUTH FZ 16</t>
-  </si>
-  <si>
     <t>ARO DE RIND TRASERO DM200</t>
   </si>
   <si>
@@ -202,6 +172,48 @@
   </si>
   <si>
     <t>22 DE4 NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>GUIAS DE CADENA DE DISTRIBUCION 250Z</t>
+  </si>
+  <si>
+    <t>CAMARA 3-50-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NASAKI </t>
+  </si>
+  <si>
+    <t>25DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>LLANTA 120-80-17</t>
+  </si>
+  <si>
+    <t>25 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>SAL[PICADERA DELANTERA WS150</t>
+  </si>
+  <si>
+    <t>CAMARA 130-90-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACEITE YAMALUBE </t>
+  </si>
+  <si>
+    <t>TAPAS LATERALES FT150</t>
+  </si>
+  <si>
+    <t>28 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>CADENA 520 SENCILLA</t>
+  </si>
+  <si>
+    <t>KID DEPISTO PULSAR 200NS</t>
+  </si>
+  <si>
+    <t>29 DE NOVIEMBRE</t>
   </si>
 </sst>
 </file>
@@ -706,7 +718,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J6" s="10"/>
       <c r="L6" s="4" t="s">
@@ -847,14 +859,14 @@
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -876,16 +888,10 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,14 +908,14 @@
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -924,14 +930,14 @@
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -946,14 +952,14 @@
     </row>
     <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>17</v>
@@ -968,14 +974,14 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>28</v>
@@ -990,16 +996,18 @@
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="L15" s="1"/>
@@ -1010,14 +1018,12 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
@@ -1030,9 +1036,11 @@
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>43</v>
@@ -1046,16 +1054,16 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>2</v>
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
@@ -1067,15 +1075,15 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>48</v>
+      <c r="B19" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1088,14 +1096,14 @@
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1108,14 +1116,14 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1126,16 +1134,16 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="20" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1146,16 +1154,16 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="21" t="s">
+    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>51</v>
+      <c r="E23" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1168,14 +1176,14 @@
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
@@ -1188,14 +1196,14 @@
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1207,10 +1215,16 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797922CC-B26B-4CE1-8426-D187E347DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE288B4-18F2-4072-89F4-F5651AD69807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -214,6 +214,42 @@
   </si>
   <si>
     <t>29 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>CHICOTE DE CLUTH F.Z16</t>
+  </si>
+  <si>
+    <t>02 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>ARNES DE CDI FT150</t>
+  </si>
+  <si>
+    <t>03 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>FITRO DE AIRE HONDA WEBE 110</t>
+  </si>
+  <si>
+    <t>BIRLOS FT150</t>
+  </si>
+  <si>
+    <t>CAMARA 140-70-17 -130-70-17</t>
+  </si>
+  <si>
+    <t>BALATA DE FZ16</t>
+  </si>
+  <si>
+    <t>04 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>TAZA DE FZ2.0</t>
+  </si>
+  <si>
+    <t>PILA 12N7 3B 12N7 34</t>
+  </si>
+  <si>
+    <t>QLINK /NASAKI</t>
   </si>
 </sst>
 </file>
@@ -718,7 +754,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1061,9 @@
       <c r="E16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1"/>
@@ -1235,10 +1273,16 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1249,10 +1293,16 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1263,46 +1313,76 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1311,7 +1391,9 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE288B4-18F2-4072-89F4-F5651AD69807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B773C9-6768-45A4-8A06-C4D1070B2660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -138,12 +138,6 @@
     <t>TAPON DE ACEITE FT150</t>
   </si>
   <si>
-    <t>BALERO 6201</t>
-  </si>
-  <si>
-    <t>10DE NOVIEMBRE</t>
-  </si>
-  <si>
     <t>CAMARA 110-90-18</t>
   </si>
   <si>
@@ -168,24 +162,6 @@
     <t xml:space="preserve">CINTA DE AISLAR </t>
   </si>
   <si>
-    <t xml:space="preserve">CASCOS DIFERENTE SMODELOS </t>
-  </si>
-  <si>
-    <t>22 DE4 NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>GUIAS DE CADENA DE DISTRIBUCION 250Z</t>
-  </si>
-  <si>
-    <t>CAMARA 3-50-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NASAKI </t>
-  </si>
-  <si>
-    <t>25DE NOVIEMBRE</t>
-  </si>
-  <si>
     <t>LLANTA 120-80-17</t>
   </si>
   <si>
@@ -201,55 +177,52 @@
     <t xml:space="preserve">ACEITE YAMALUBE </t>
   </si>
   <si>
-    <t>TAPAS LATERALES FT150</t>
-  </si>
-  <si>
-    <t>28 DE NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>CADENA 520 SENCILLA</t>
-  </si>
-  <si>
-    <t>KID DEPISTO PULSAR 200NS</t>
-  </si>
-  <si>
-    <t>29 DE NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>CHICOTE DE CLUTH F.Z16</t>
-  </si>
-  <si>
     <t>02 DE DICIEMBRE</t>
   </si>
   <si>
-    <t>ARNES DE CDI FT150</t>
-  </si>
-  <si>
-    <t>03 DE DICIEMBRE</t>
-  </si>
-  <si>
     <t>FITRO DE AIRE HONDA WEBE 110</t>
   </si>
   <si>
-    <t>BIRLOS FT150</t>
-  </si>
-  <si>
-    <t>CAMARA 140-70-17 -130-70-17</t>
-  </si>
-  <si>
-    <t>BALATA DE FZ16</t>
-  </si>
-  <si>
-    <t>04 DE DICIEMBRE</t>
-  </si>
-  <si>
-    <t>TAZA DE FZ2.0</t>
-  </si>
-  <si>
-    <t>PILA 12N7 3B 12N7 34</t>
-  </si>
-  <si>
-    <t>QLINK /NASAKI</t>
+    <t>POSAPIES DE 250Z</t>
+  </si>
+  <si>
+    <t>12 DE DICIEMBRE-25</t>
+  </si>
+  <si>
+    <t>LLANTA 3.50.10</t>
+  </si>
+  <si>
+    <t>LLANTA 3.00.17</t>
+  </si>
+  <si>
+    <t>LLANTA 90-90-18</t>
+  </si>
+  <si>
+    <t>LLANTA 130-70-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NASAKI</t>
+  </si>
+  <si>
+    <t>LLANTA 110-90-16</t>
+  </si>
+  <si>
+    <t>NASKI</t>
+  </si>
+  <si>
+    <t>BUJE DE RUEDA TRASERA FT150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANIJA DE CARGO SOLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GUIAS DE DISTRIBUCCION 250Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHICOTE DE CLUTH FZ16 </t>
   </si>
 </sst>
 </file>
@@ -754,7 +727,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="10"/>
       <c r="L6" s="4" t="s">
@@ -895,7 +868,7 @@
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -924,10 +897,16 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,7 +923,7 @@
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
@@ -966,10 +945,10 @@
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="15" t="s">
@@ -988,14 +967,14 @@
     </row>
     <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>17</v>
@@ -1010,14 +989,12 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>28</v>
@@ -1032,17 +1009,15 @@
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1053,16 +1028,18 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="20"/>
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1073,15 +1050,15 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1092,16 +1069,16 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>35</v>
+      <c r="C18" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
@@ -1113,15 +1090,15 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
+      <c r="E19" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1133,15 +1110,15 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>51</v>
+      <c r="B20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1152,16 +1129,16 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="20" t="s">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1172,16 +1149,16 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="21" t="s">
+    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1193,15 +1170,15 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>57</v>
+      <c r="B23" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="22" t="s">
-        <v>54</v>
+      <c r="E23" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1214,14 +1191,14 @@
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
@@ -1234,14 +1211,14 @@
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1252,16 +1229,16 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>2</v>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
@@ -1274,14 +1251,14 @@
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
@@ -1294,14 +1271,14 @@
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
@@ -1313,76 +1290,48 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>74</v>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="22" t="s">
-        <v>66</v>
-      </c>
+      <c r="E30" s="22"/>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="E31" s="15"/>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1391,9 +1340,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B773C9-6768-45A4-8A06-C4D1070B2660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17476D58-FA46-4392-870C-194382591302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -150,79 +150,52 @@
     <t>CADENA 530</t>
   </si>
   <si>
-    <t>19 DE NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>ACEITE REPSOL</t>
-  </si>
-  <si>
     <t>ARO DE RIND TRASERO DM200</t>
   </si>
   <si>
     <t xml:space="preserve">CINTA DE AISLAR </t>
   </si>
   <si>
-    <t>LLANTA 120-80-17</t>
-  </si>
-  <si>
     <t>25 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t>SAL[PICADERA DELANTERA WS150</t>
-  </si>
-  <si>
     <t>CAMARA 130-90-15</t>
   </si>
   <si>
-    <t xml:space="preserve">ACEITE YAMALUBE </t>
-  </si>
-  <si>
     <t>02 DE DICIEMBRE</t>
   </si>
   <si>
     <t>FITRO DE AIRE HONDA WEBE 110</t>
   </si>
   <si>
-    <t>POSAPIES DE 250Z</t>
-  </si>
-  <si>
     <t>12 DE DICIEMBRE-25</t>
   </si>
   <si>
-    <t>LLANTA 3.50.10</t>
-  </si>
-  <si>
-    <t>LLANTA 3.00.17</t>
-  </si>
-  <si>
-    <t>LLANTA 90-90-18</t>
-  </si>
-  <si>
-    <t>LLANTA 130-70-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NASAKI</t>
-  </si>
-  <si>
-    <t>LLANTA 110-90-16</t>
-  </si>
-  <si>
-    <t>NASKI</t>
-  </si>
-  <si>
-    <t>BUJE DE RUEDA TRASERA FT150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANIJA DE CARGO SOLA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>GUIAS DE DISTRIBUCCION 250Z</t>
   </si>
   <si>
-    <t xml:space="preserve">CHICOTE DE CLUTH FZ16 </t>
+    <t xml:space="preserve">PORTA PLACAS DE METAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 DE DICIEMBRE </t>
+  </si>
+  <si>
+    <t>ACEITE MOTUL 7100-10-W-40</t>
+  </si>
+  <si>
+    <t>CHICOTE DE CLUTH FZ16</t>
+  </si>
+  <si>
+    <t>POSAPIE DE 250Z</t>
+  </si>
+  <si>
+    <t>20 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>CHICOTE DE ACELERADOR FT125/ FT150</t>
+  </si>
+  <si>
+    <t>18DE DICIEMBRE</t>
   </si>
 </sst>
 </file>
@@ -727,7 +700,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6" s="10"/>
       <c r="L6" s="4" t="s">
@@ -868,7 +841,7 @@
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -1009,15 +982,17 @@
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1029,17 +1004,17 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1051,14 +1026,14 @@
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1070,16 +1045,10 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1090,15 +1059,15 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>2</v>
+      <c r="C19" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1110,15 +1079,15 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>50</v>
+      <c r="E20" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1131,14 +1100,14 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1150,16 +1119,10 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1170,16 +1133,10 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1190,16 +1147,10 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1210,16 +1161,10 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1230,16 +1175,10 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1250,16 +1189,10 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1270,16 +1203,10 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1291,9 +1218,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17476D58-FA46-4392-870C-194382591302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F024E-9D87-47FA-B447-C02E8A250C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -189,13 +189,22 @@
     <t>POSAPIE DE 250Z</t>
   </si>
   <si>
-    <t>20 DE DICIEMBRE</t>
-  </si>
-  <si>
     <t>CHICOTE DE ACELERADOR FT125/ FT150</t>
   </si>
   <si>
     <t>18DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>BALERA 6003</t>
+  </si>
+  <si>
+    <t>22 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>22DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>JUNTAS DE MOTOR PULSAR</t>
   </si>
 </sst>
 </file>
@@ -700,7 +709,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1096,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1100,14 +1109,14 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1119,10 +1128,16 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1133,10 +1148,16 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F024E-9D87-47FA-B447-C02E8A250C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08009F01-F05D-4EA2-AC84-1ABCF08A4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -205,6 +205,30 @@
   </si>
   <si>
     <t>JUNTAS DE MOTOR PULSAR</t>
+  </si>
+  <si>
+    <t>PILA 12N7 -3B</t>
+  </si>
+  <si>
+    <t>DIRECCIONALES UNIVERSALES</t>
+  </si>
+  <si>
+    <t>CADENA 520 CON ORING</t>
+  </si>
+  <si>
+    <t>ESPEJOS COOFE RANCING</t>
+  </si>
+  <si>
+    <t>27DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>27 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>CHICOTE DE FRENO TRASERO WS150 /SPORT</t>
+  </si>
+  <si>
+    <t>AMORTIGUADOR AVT</t>
   </si>
 </sst>
 </file>
@@ -709,7 +733,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,10 +1192,16 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1182,10 +1212,16 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1196,10 +1232,16 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1210,10 +1252,16 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1224,10 +1272,16 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1238,10 +1292,16 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08009F01-F05D-4EA2-AC84-1ABCF08A4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89A1B3-7152-4E16-AE7D-58663DA73DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -147,15 +147,9 @@
     <t>14 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t>CADENA 530</t>
-  </si>
-  <si>
     <t>ARO DE RIND TRASERO DM200</t>
   </si>
   <si>
-    <t xml:space="preserve">CINTA DE AISLAR </t>
-  </si>
-  <si>
     <t>25 DE NOVIEMBRE</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>CHICOTE DE CLUTH FZ16</t>
   </si>
   <si>
-    <t>POSAPIE DE 250Z</t>
-  </si>
-  <si>
     <t>CHICOTE DE ACELERADOR FT125/ FT150</t>
   </si>
   <si>
@@ -229,6 +220,51 @@
   </si>
   <si>
     <t>AMORTIGUADOR AVT</t>
+  </si>
+  <si>
+    <t>29 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILA 12N9 4B </t>
+  </si>
+  <si>
+    <t>CHICOTE DE CLUTH DM200</t>
+  </si>
+  <si>
+    <t>31 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>MANDO DERECHO 250Z</t>
+  </si>
+  <si>
+    <t>02 DE ENERO</t>
+  </si>
+  <si>
+    <t>MANDO IZQUIERDO 250Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAYOS DE DM200 DELANTEROS </t>
+  </si>
+  <si>
+    <t>PATITOS</t>
+  </si>
+  <si>
+    <t>MANDO DERECHO 125Z</t>
+  </si>
+  <si>
+    <t>03 DE ENERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPEJOS COFEE RANCING </t>
+  </si>
+  <si>
+    <t>TAZAS DE DIRECCON DM200</t>
+  </si>
+  <si>
+    <t>CADENA 530 SENCILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSAPIE DE 250Z AMBOS </t>
   </si>
 </sst>
 </file>
@@ -733,7 +769,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,10 +830,8 @@
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="L6" s="4" t="s">
         <v>19</v>
       </c>
@@ -874,7 +908,7 @@
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -995,7 +1029,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
@@ -1015,17 +1049,17 @@
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1037,17 +1071,17 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1059,14 +1093,14 @@
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1093,14 +1127,14 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1113,14 +1147,14 @@
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1133,14 +1167,14 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1153,14 +1187,14 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1173,14 +1207,14 @@
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1193,14 +1227,14 @@
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
@@ -1213,14 +1247,14 @@
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1233,14 +1267,14 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
@@ -1253,14 +1287,14 @@
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
@@ -1273,14 +1307,14 @@
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
@@ -1293,96 +1327,150 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89A1B3-7152-4E16-AE7D-58663DA73DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -265,12 +264,18 @@
   </si>
   <si>
     <t xml:space="preserve">POSAPIE DE 250Z AMBOS </t>
+  </si>
+  <si>
+    <t>Aceites</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -424,11 +429,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -448,10 +464,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,38 +795,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="34.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>29</v>
-      </c>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,19 +840,11 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,17 +866,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,15 +890,11 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,21 +914,15 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="17"/>
       <c r="L9" s="1" t="s">
         <v>24</v>
@@ -936,17 +938,11 @@
         <v>740</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
@@ -961,17 +957,11 @@
         <v>1323.5</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="22" t="s">
-        <v>33</v>
-      </c>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
@@ -983,17 +973,11 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="15" t="s">
-        <v>33</v>
-      </c>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1005,17 +989,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1027,14 +1001,18 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>28</v>
@@ -1047,16 +1025,18 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>42</v>
@@ -1069,16 +1049,16 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>2</v>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>44</v>
@@ -1091,16 +1071,14 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>2</v>
-      </c>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1111,11 +1089,17 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+    <row r="18" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1125,16 +1109,16 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>35</v>
+    <row r="19" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="22" t="s">
-        <v>48</v>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1145,16 +1129,16 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="15" t="s">
-        <v>52</v>
+      <c r="E20" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1165,16 +1149,16 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>2</v>
+    <row r="21" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
+      <c r="E21" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1185,16 +1169,16 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="20" t="s">
+    <row r="22" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1205,16 +1189,14 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>2</v>
-      </c>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1225,16 +1207,16 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="20" t="s">
+    <row r="24" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
@@ -1245,16 +1227,16 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="20" t="s">
+    <row r="25" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1265,16 +1247,16 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>35</v>
+    <row r="26" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
@@ -1285,17 +1267,11 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>35</v>
-      </c>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1305,16 +1281,16 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>2</v>
+    <row r="28" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>62</v>
+      <c r="E28" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
@@ -1325,567 +1301,631 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>35</v>
+    <row r="29" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>62</v>
+      <c r="E29" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>77</v>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="22" t="s">
-        <v>65</v>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="20" t="s">
+    <row r="31" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="15" t="s">
-        <v>65</v>
+      <c r="E31" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="20" t="s">
+    <row r="32" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="20" t="s">
+    <row r="33" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="21" t="s">
+    <row r="34" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>72</v>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="20" t="s">
+    <row r="36" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="20" t="s">
+    <row r="37" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+    <row r="39" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+    <row r="40" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+    <row r="41" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+    <row r="42" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+    <row r="44" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+    <row r="45" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+    <row r="46" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+    <row r="47" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="18"/>
     </row>
-    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis\Documents\GitHub\Motozom\cosas por pedir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BA4F2-FBD6-43DF-A8DE-CAD256ED5D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -173,51 +174,18 @@
     <t xml:space="preserve">17 DE DICIEMBRE </t>
   </si>
   <si>
-    <t>ACEITE MOTUL 7100-10-W-40</t>
-  </si>
-  <si>
     <t>CHICOTE DE CLUTH FZ16</t>
   </si>
   <si>
-    <t>CHICOTE DE ACELERADOR FT125/ FT150</t>
-  </si>
-  <si>
-    <t>18DE DICIEMBRE</t>
-  </si>
-  <si>
-    <t>BALERA 6003</t>
-  </si>
-  <si>
     <t>22 DE DICIEMBRE</t>
   </si>
   <si>
-    <t>22DE DICIEMBRE</t>
-  </si>
-  <si>
     <t>JUNTAS DE MOTOR PULSAR</t>
   </si>
   <si>
-    <t>PILA 12N7 -3B</t>
-  </si>
-  <si>
-    <t>DIRECCIONALES UNIVERSALES</t>
-  </si>
-  <si>
-    <t>CADENA 520 CON ORING</t>
-  </si>
-  <si>
-    <t>ESPEJOS COOFE RANCING</t>
-  </si>
-  <si>
-    <t>27DE DICIEMBRE</t>
-  </si>
-  <si>
     <t>27 DE DICIEMBRE</t>
   </si>
   <si>
-    <t>CHICOTE DE FRENO TRASERO WS150 /SPORT</t>
-  </si>
-  <si>
     <t>AMORTIGUADOR AVT</t>
   </si>
   <si>
@@ -227,24 +195,12 @@
     <t xml:space="preserve">PILA 12N9 4B </t>
   </si>
   <si>
-    <t>CHICOTE DE CLUTH DM200</t>
-  </si>
-  <si>
-    <t>31 DE DICIEMBRE</t>
-  </si>
-  <si>
     <t>MANDO DERECHO 250Z</t>
   </si>
   <si>
     <t>02 DE ENERO</t>
   </si>
   <si>
-    <t>MANDO IZQUIERDO 250Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAYOS DE DM200 DELANTEROS </t>
-  </si>
-  <si>
     <t>PATITOS</t>
   </si>
   <si>
@@ -270,12 +226,45 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>PEDAL DE FRENO TRASERO FT125/FT150</t>
+  </si>
+  <si>
+    <t>ACEITE MOTUL 7100-10-W40</t>
+  </si>
+  <si>
+    <t>18 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>06 DE ENERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPEJOS DE ALERON </t>
+  </si>
+  <si>
+    <t>KID DE ARRASTRE DE DM150</t>
+  </si>
+  <si>
+    <t>RAYOS TRASEROS DM200</t>
+  </si>
+  <si>
+    <t>09 DE ENERO</t>
+  </si>
+  <si>
+    <t>ESPEJOS COFEE RANCING</t>
+  </si>
+  <si>
+    <t>AMORTIGUADOR WS150</t>
+  </si>
+  <si>
+    <t>10 DE ENERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -440,11 +429,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -467,10 +467,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,34 +796,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1"/>
-    <col min="9" max="9" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="12" max="12" width="34.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
@@ -840,11 +841,15 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
@@ -866,11 +871,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,11 +895,11 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,11 +919,11 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,11 +943,11 @@
         <v>740</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,11 +962,11 @@
         <v>1323.5</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,11 +978,11 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
@@ -989,7 +994,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1001,7 +1006,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1030,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1049,7 +1054,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1076,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1094,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1109,7 +1114,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1134,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1154,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>34</v>
       </c>
@@ -1169,7 +1174,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
@@ -1189,9 +1194,9 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="1"/>
@@ -1207,7 +1212,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
@@ -1227,9 +1232,9 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>2</v>
@@ -1247,9 +1252,9 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>2</v>
@@ -1267,11 +1272,17 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1281,16 +1292,16 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
@@ -1301,12 +1312,12 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="15" t="s">
@@ -1316,601 +1327,566 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="15" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="20" t="s">
+    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>35</v>
+      <c r="C35" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
-        <v>63</v>
+    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="20" t="s">
+    <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
-        <v>77</v>
+    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="21" t="s">
-        <v>65</v>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="15" t="s">
-        <v>65</v>
+      <c r="E40" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>2</v>
-      </c>
+    <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>2</v>
-      </c>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>2</v>
-      </c>
+    <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="G44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>35</v>
-      </c>
+    <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="G45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>2</v>
-      </c>
+    <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="G46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>35</v>
-      </c>
+    <row r="47" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="G47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="18"/>
-    </row>
-    <row r="53" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BA4F2-FBD6-43DF-A8DE-CAD256ED5D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFB2509-ED33-4B20-9F6E-CE1BE1D392BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -129,21 +129,12 @@
     <t>7 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">MANUBRIO DE 3 PIEZAS </t>
-  </si>
-  <si>
     <t>MERCADO LIBRE</t>
   </si>
   <si>
     <t>TAPON DE ACEITE FT150</t>
   </si>
   <si>
-    <t>CAMARA 110-90-18</t>
-  </si>
-  <si>
-    <t>11 DE NOVIEMBRE</t>
-  </si>
-  <si>
     <t>14 DE NOVIEMBRE</t>
   </si>
   <si>
@@ -177,12 +168,6 @@
     <t>CHICOTE DE CLUTH FZ16</t>
   </si>
   <si>
-    <t>22 DE DICIEMBRE</t>
-  </si>
-  <si>
-    <t>JUNTAS DE MOTOR PULSAR</t>
-  </si>
-  <si>
     <t>27 DE DICIEMBRE</t>
   </si>
   <si>
@@ -192,30 +177,15 @@
     <t>29 DE DICIEMBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">PILA 12N9 4B </t>
-  </si>
-  <si>
-    <t>MANDO DERECHO 250Z</t>
-  </si>
-  <si>
     <t>02 DE ENERO</t>
   </si>
   <si>
-    <t>PATITOS</t>
-  </si>
-  <si>
-    <t>MANDO DERECHO 125Z</t>
-  </si>
-  <si>
     <t>03 DE ENERO</t>
   </si>
   <si>
     <t xml:space="preserve">ESPEJOS COFEE RANCING </t>
   </si>
   <si>
-    <t>TAZAS DE DIRECCON DM200</t>
-  </si>
-  <si>
     <t>CADENA 530 SENCILLA</t>
   </si>
   <si>
@@ -243,9 +213,6 @@
     <t xml:space="preserve">ESPEJOS DE ALERON </t>
   </si>
   <si>
-    <t>KID DE ARRASTRE DE DM150</t>
-  </si>
-  <si>
     <t>RAYOS TRASEROS DM200</t>
   </si>
   <si>
@@ -259,6 +226,51 @@
   </si>
   <si>
     <t>10 DE ENERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALATA DE DISCO SUZUKI 125 </t>
+  </si>
+  <si>
+    <t>13 DE ENERO</t>
+  </si>
+  <si>
+    <t>STAPON GASOLINA FT150/FT125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUITH DE FT125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPLORADORAS DE BUHOS </t>
+  </si>
+  <si>
+    <t>CHICOTE DE VELOCIMETRO DE 125Z</t>
+  </si>
+  <si>
+    <t>CLAXON DS150</t>
+  </si>
+  <si>
+    <t>15 DE ENERO</t>
+  </si>
+  <si>
+    <t>KID DE CILINDRO DS150</t>
+  </si>
+  <si>
+    <t>REGULADOR DE DM200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCHA DE MOTONETA </t>
+  </si>
+  <si>
+    <t>ACEITE MOTUL 5100-15W-50</t>
+  </si>
+  <si>
+    <t>15 DE ENERO-26</t>
+  </si>
+  <si>
+    <t>PILA 12N9 4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATITOS </t>
   </si>
 </sst>
 </file>
@@ -800,7 +812,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +829,10 @@
   <sheetData>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
@@ -843,10 +855,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -872,8 +884,12 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="G7" s="1" t="s">
@@ -1044,7 +1060,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1066,7 +1082,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1096,7 +1112,7 @@
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>2</v>
@@ -1136,7 +1152,7 @@
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>2</v>
@@ -1154,16 +1170,14 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="15" t="s">
-        <v>33</v>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1176,7 +1190,7 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
@@ -1194,14 +1208,16 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="9"/>
+    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1214,14 +1230,14 @@
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
@@ -1232,16 +1248,16 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>2</v>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1253,15 +1269,15 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>2</v>
+      <c r="C26" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>45</v>
+      <c r="E26" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
@@ -1274,14 +1290,14 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
@@ -1294,14 +1310,14 @@
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
@@ -1314,29 +1330,29 @@
     </row>
     <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>35</v>
+    <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
@@ -1344,14 +1360,14 @@
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="21" t="s">
-        <v>54</v>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
@@ -1359,14 +1375,14 @@
     </row>
     <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="15" t="s">
-        <v>54</v>
+      <c r="E32" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
@@ -1374,14 +1390,14 @@
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
@@ -1389,14 +1405,14 @@
     </row>
     <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
@@ -1404,29 +1420,29 @@
     </row>
     <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>35</v>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
@@ -1434,14 +1450,14 @@
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
@@ -1452,11 +1468,11 @@
         <v>71</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
@@ -1471,7 +1487,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
@@ -1493,34 +1509,46 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
-        <v>76</v>
+      <c r="B41" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+    <row r="43" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFB2509-ED33-4B20-9F6E-CE1BE1D392BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3531DE9-FB58-4AB6-B082-8BF21927BABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -120,9 +120,6 @@
     <t xml:space="preserve">14 DE OCTUBRE </t>
   </si>
   <si>
-    <t>05 DE NOVIEMBRE</t>
-  </si>
-  <si>
     <t xml:space="preserve">CANDADO 520 </t>
   </si>
   <si>
@@ -138,18 +135,12 @@
     <t>14 DE NOVIEMBRE</t>
   </si>
   <si>
-    <t>ARO DE RIND TRASERO DM200</t>
-  </si>
-  <si>
     <t>25 DE NOVIEMBRE</t>
   </si>
   <si>
     <t>CAMARA 130-90-15</t>
   </si>
   <si>
-    <t>02 DE DICIEMBRE</t>
-  </si>
-  <si>
     <t>FITRO DE AIRE HONDA WEBE 110</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t xml:space="preserve">17 DE DICIEMBRE </t>
   </si>
   <si>
-    <t>CHICOTE DE CLUTH FZ16</t>
-  </si>
-  <si>
     <t>27 DE DICIEMBRE</t>
   </si>
   <si>
@@ -180,12 +168,6 @@
     <t>02 DE ENERO</t>
   </si>
   <si>
-    <t>03 DE ENERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPEJOS COFEE RANCING </t>
-  </si>
-  <si>
     <t>CADENA 530 SENCILLA</t>
   </si>
   <si>
@@ -198,9 +180,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>PEDAL DE FRENO TRASERO FT125/FT150</t>
-  </si>
-  <si>
     <t>ACEITE MOTUL 7100-10-W40</t>
   </si>
   <si>
@@ -210,33 +189,15 @@
     <t>06 DE ENERO</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPEJOS DE ALERON </t>
-  </si>
-  <si>
-    <t>RAYOS TRASEROS DM200</t>
-  </si>
-  <si>
-    <t>09 DE ENERO</t>
-  </si>
-  <si>
     <t>ESPEJOS COFEE RANCING</t>
   </si>
   <si>
     <t>AMORTIGUADOR WS150</t>
   </si>
   <si>
-    <t>10 DE ENERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALATA DE DISCO SUZUKI 125 </t>
-  </si>
-  <si>
     <t>13 DE ENERO</t>
   </si>
   <si>
-    <t>STAPON GASOLINA FT150/FT125</t>
-  </si>
-  <si>
     <t xml:space="preserve">SUITH DE FT125 </t>
   </si>
   <si>
@@ -271,6 +232,60 @@
   </si>
   <si>
     <t xml:space="preserve">PATITOS </t>
+  </si>
+  <si>
+    <t>19 DE ENERO</t>
+  </si>
+  <si>
+    <t>20 DE ENERO</t>
+  </si>
+  <si>
+    <t>MANIJAS DE LUJO AZULES ,ROJAS ,NEGRO,PLATEADA</t>
+  </si>
+  <si>
+    <t>MERCADO LIBE</t>
+  </si>
+  <si>
+    <t>22 DE ENERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILENCIADOR VARIOS MODELOS </t>
+  </si>
+  <si>
+    <t>ACEITE REPSOL</t>
+  </si>
+  <si>
+    <t>23 DE ENERO-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANIJA IZQUIERDA BASE FT150  Y SOLA </t>
+  </si>
+  <si>
+    <t>CARBURADOR DE FT150</t>
+  </si>
+  <si>
+    <t>24 DE ENERO</t>
+  </si>
+  <si>
+    <t>FILTO DE ACEITE DE ZUZUKI GNS125</t>
+  </si>
+  <si>
+    <t>ESCAPES</t>
+  </si>
+  <si>
+    <t>ESPEJOS DE ALERON</t>
+  </si>
+  <si>
+    <t>10 DE ENRO</t>
+  </si>
+  <si>
+    <t>BALATA DE DISCO SUZUKI 125</t>
+  </si>
+  <si>
+    <t>ESTATOR DE CROSMAX 250</t>
+  </si>
+  <si>
+    <t>TAZAS DE DIRECCION RT200</t>
   </si>
 </sst>
 </file>
@@ -812,7 +827,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,10 +844,10 @@
   <sheetData>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
@@ -855,10 +870,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -885,10 +900,10 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -912,8 +927,12 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="G8" s="1" t="s">
@@ -1060,7 +1079,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1082,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1111,16 +1130,10 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1132,14 +1145,14 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1152,14 +1165,14 @@
     </row>
     <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1172,12 +1185,12 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1190,14 +1203,14 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1210,14 +1223,14 @@
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1228,12 +1241,12 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>2</v>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -1248,16 +1261,16 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>34</v>
+    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>45</v>
+      <c r="E25" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1268,16 +1281,16 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>34</v>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="15" t="s">
-        <v>47</v>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
@@ -1288,16 +1301,16 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>34</v>
+    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>47</v>
+      <c r="E27" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
@@ -1309,15 +1322,15 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>2</v>
+      <c r="B28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="21" t="s">
-        <v>49</v>
+      <c r="E28" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
@@ -1329,150 +1342,150 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>34</v>
+      <c r="B29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="15" t="s">
-        <v>50</v>
+      <c r="E29" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>34</v>
+      <c r="B30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>34</v>
+      <c r="B32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>2</v>
+      <c r="B33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="20" t="s">
+    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>34</v>
+      <c r="B38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
@@ -1480,14 +1493,14 @@
     </row>
     <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>68</v>
+      <c r="E39" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
@@ -1495,14 +1508,14 @@
     </row>
     <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
@@ -1510,14 +1523,14 @@
     </row>
     <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
@@ -1525,14 +1538,14 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
@@ -1540,42 +1553,58 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="19"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3531DE9-FB58-4AB6-B082-8BF21927BABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED99861-43C6-42A9-B586-E35582B4321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -129,15 +129,6 @@
     <t>MERCADO LIBRE</t>
   </si>
   <si>
-    <t>TAPON DE ACEITE FT150</t>
-  </si>
-  <si>
-    <t>14 DE NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>25 DE NOVIEMBRE</t>
-  </si>
-  <si>
     <t>CAMARA 130-90-15</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t>12 DE DICIEMBRE-25</t>
   </si>
   <si>
-    <t>GUIAS DE DISTRIBUCCION 250Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">PORTA PLACAS DE METAL </t>
   </si>
   <si>
@@ -162,15 +150,9 @@
     <t>AMORTIGUADOR AVT</t>
   </si>
   <si>
-    <t>29 DE DICIEMBRE</t>
-  </si>
-  <si>
     <t>02 DE ENERO</t>
   </si>
   <si>
-    <t>CADENA 530 SENCILLA</t>
-  </si>
-  <si>
     <t xml:space="preserve">POSAPIE DE 250Z AMBOS </t>
   </si>
   <si>
@@ -192,60 +174,15 @@
     <t>ESPEJOS COFEE RANCING</t>
   </si>
   <si>
-    <t>AMORTIGUADOR WS150</t>
-  </si>
-  <si>
     <t>13 DE ENERO</t>
   </si>
   <si>
-    <t xml:space="preserve">SUITH DE FT125 </t>
-  </si>
-  <si>
     <t xml:space="preserve">ESPLORADORAS DE BUHOS </t>
   </si>
   <si>
-    <t>CHICOTE DE VELOCIMETRO DE 125Z</t>
-  </si>
-  <si>
-    <t>CLAXON DS150</t>
-  </si>
-  <si>
-    <t>15 DE ENERO</t>
-  </si>
-  <si>
-    <t>KID DE CILINDRO DS150</t>
-  </si>
-  <si>
-    <t>REGULADOR DE DM200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCHA DE MOTONETA </t>
-  </si>
-  <si>
-    <t>ACEITE MOTUL 5100-15W-50</t>
-  </si>
-  <si>
-    <t>15 DE ENERO-26</t>
-  </si>
-  <si>
-    <t>PILA 12N9 4B</t>
-  </si>
-  <si>
     <t xml:space="preserve">PATITOS </t>
   </si>
   <si>
-    <t>19 DE ENERO</t>
-  </si>
-  <si>
-    <t>20 DE ENERO</t>
-  </si>
-  <si>
-    <t>MANIJAS DE LUJO AZULES ,ROJAS ,NEGRO,PLATEADA</t>
-  </si>
-  <si>
-    <t>MERCADO LIBE</t>
-  </si>
-  <si>
     <t>22 DE ENERO</t>
   </si>
   <si>
@@ -258,12 +195,6 @@
     <t>23 DE ENERO-26</t>
   </si>
   <si>
-    <t xml:space="preserve">MANIJA IZQUIERDA BASE FT150  Y SOLA </t>
-  </si>
-  <si>
-    <t>CARBURADOR DE FT150</t>
-  </si>
-  <si>
     <t>24 DE ENERO</t>
   </si>
   <si>
@@ -276,16 +207,46 @@
     <t>ESPEJOS DE ALERON</t>
   </si>
   <si>
-    <t>10 DE ENRO</t>
-  </si>
-  <si>
-    <t>BALATA DE DISCO SUZUKI 125</t>
-  </si>
-  <si>
-    <t>ESTATOR DE CROSMAX 250</t>
-  </si>
-  <si>
     <t>TAZAS DE DIRECCION RT200</t>
+  </si>
+  <si>
+    <t>ASAKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALATA DE CROSMAX TRASERA </t>
+  </si>
+  <si>
+    <t>26 DE ENERO</t>
+  </si>
+  <si>
+    <t>ACEITE MOTUL 7100-20-50-</t>
+  </si>
+  <si>
+    <t>27 DE ENERO-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUMENTOS DE AMORIGUADOR </t>
+  </si>
+  <si>
+    <t>28 DE ENERO-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADENA CON ORING 428 </t>
+  </si>
+  <si>
+    <t>NASAKI O MERCADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUJIA MAESTRA PARA PULSR 200NS </t>
+  </si>
+  <si>
+    <t>MANIJAS DE LUJO AZULES ,ROAS ,NEGRO,PLATEADA</t>
+  </si>
+  <si>
+    <t>MERCADO</t>
+  </si>
+  <si>
+    <t>20 DE ENRO</t>
   </si>
 </sst>
 </file>
@@ -471,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -493,7 +454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,7 +787,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,14 +803,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
@@ -870,13 +830,13 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
@@ -899,14 +859,10 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,13 +884,13 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
@@ -955,10 +911,14 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
@@ -980,9 +940,9 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
@@ -999,9 +959,9 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1015,9 +975,9 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1079,7 +1039,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1101,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1118,7 +1078,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1130,8 +1090,12 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="1"/>
@@ -1145,14 +1109,14 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1163,16 +1127,16 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>2</v>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="21" t="s">
-        <v>32</v>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1183,14 +1147,16 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="9"/>
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
+      <c r="E21" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1201,16 +1167,16 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>2</v>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1223,14 +1189,14 @@
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>39</v>
+      <c r="E23" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1241,16 +1207,16 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="9" t="s">
+    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
@@ -1263,14 +1229,14 @@
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1281,16 +1247,16 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>33</v>
+    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>43</v>
+      <c r="E26" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
@@ -1302,15 +1268,15 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>2</v>
+      <c r="B27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="21" t="s">
-        <v>45</v>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
@@ -1322,15 +1288,15 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>33</v>
+      <c r="B28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="15" t="s">
-        <v>46</v>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
@@ -1341,270 +1307,198 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
+      <c r="D29" s="18"/>
+      <c r="E29" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="19"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>33</v>
+      <c r="B33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E35" s="1"/>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="E39" s="8"/>
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="G44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="23" t="s">
-        <v>79</v>
-      </c>
+      <c r="E45" s="22"/>
       <c r="G45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="19"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="G46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1646,7 +1540,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="23"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED99861-43C6-42A9-B586-E35582B4321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4390FA34-461E-4C87-B172-67B424C3068F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -247,6 +247,33 @@
   </si>
   <si>
     <t>20 DE ENRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECIONAL DE PULSAR 200NS </t>
+  </si>
+  <si>
+    <t>02 DE FEBRERO-26</t>
+  </si>
+  <si>
+    <t>INDICADOR DE CAMBIOS FT150</t>
+  </si>
+  <si>
+    <t>05 DE FEBRERO-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALAVERA DE DM200 TRASERA </t>
+  </si>
+  <si>
+    <t>BANDA POWERLINK 743-20-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHOGADOR DE WS150 </t>
+  </si>
+  <si>
+    <t>KID DE PISTON FT150</t>
+  </si>
+  <si>
+    <t>BARRA DE POSAPIES FT125/150</t>
   </si>
 </sst>
 </file>
@@ -787,7 +814,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,64 +1423,104 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="19"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>

--- a/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
+++ b/cosas por pedir/LISTA DE LOS PEDIDOS DE REFACCIONARIA MOTOZOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\cosas por pedir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4390FA34-461E-4C87-B172-67B424C3068F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E8AB2-F813-4A75-9A19-156B8CEF50CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t xml:space="preserve">LISTA DE PEDIDO SEMANA 15 DE ABRIL </t>
   </si>
@@ -75,9 +75,6 @@
     <t>CABLE PARA BUJIA CROXMAX 250</t>
   </si>
   <si>
-    <t>CUBRE TANQUES</t>
-  </si>
-  <si>
     <t>POSAPIE TRASEREO FT200</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
     <t xml:space="preserve">17 DE DICIEMBRE </t>
   </si>
   <si>
-    <t>27 DE DICIEMBRE</t>
-  </si>
-  <si>
-    <t>AMORTIGUADOR AVT</t>
-  </si>
-  <si>
     <t>02 DE ENERO</t>
   </si>
   <si>
@@ -168,45 +159,15 @@
     <t>18 DE DICIEMBRE</t>
   </si>
   <si>
-    <t>06 DE ENERO</t>
-  </si>
-  <si>
-    <t>ESPEJOS COFEE RANCING</t>
-  </si>
-  <si>
-    <t>13 DE ENERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPLORADORAS DE BUHOS </t>
-  </si>
-  <si>
     <t xml:space="preserve">PATITOS </t>
   </si>
   <si>
-    <t>22 DE ENERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILENCIADOR VARIOS MODELOS </t>
-  </si>
-  <si>
-    <t>ACEITE REPSOL</t>
-  </si>
-  <si>
-    <t>23 DE ENERO-26</t>
-  </si>
-  <si>
     <t>24 DE ENERO</t>
   </si>
   <si>
-    <t>FILTO DE ACEITE DE ZUZUKI GNS125</t>
-  </si>
-  <si>
     <t>ESCAPES</t>
   </si>
   <si>
-    <t>ESPEJOS DE ALERON</t>
-  </si>
-  <si>
     <t>TAZAS DE DIRECCION RT200</t>
   </si>
   <si>
@@ -225,36 +186,6 @@
     <t>27 DE ENERO-26</t>
   </si>
   <si>
-    <t xml:space="preserve">AUMENTOS DE AMORIGUADOR </t>
-  </si>
-  <si>
-    <t>28 DE ENERO-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADENA CON ORING 428 </t>
-  </si>
-  <si>
-    <t>NASAKI O MERCADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUJIA MAESTRA PARA PULSR 200NS </t>
-  </si>
-  <si>
-    <t>MANIJAS DE LUJO AZULES ,ROAS ,NEGRO,PLATEADA</t>
-  </si>
-  <si>
-    <t>MERCADO</t>
-  </si>
-  <si>
-    <t>20 DE ENRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRECIONAL DE PULSAR 200NS </t>
-  </si>
-  <si>
-    <t>02 DE FEBRERO-26</t>
-  </si>
-  <si>
     <t>INDICADOR DE CAMBIOS FT150</t>
   </si>
   <si>
@@ -274,6 +205,42 @@
   </si>
   <si>
     <t>BARRA DE POSAPIES FT125/150</t>
+  </si>
+  <si>
+    <t>FILTRO DE AIRE DOMINAR 400</t>
+  </si>
+  <si>
+    <t>PARADOR LATERAL DM200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDAL DE ARRANQUE 150Z </t>
+  </si>
+  <si>
+    <t>11 DE FEBREREO-26</t>
+  </si>
+  <si>
+    <t>11 DE FEBRERO-26</t>
+  </si>
+  <si>
+    <t>DISCO DELANTERO DM200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARADOR LATERAL FT150 </t>
+  </si>
+  <si>
+    <t>NAASKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUJIA MAESTRA PULSAR 200NS </t>
+  </si>
+  <si>
+    <t>28 DE ENERO</t>
+  </si>
+  <si>
+    <t>CUBREPOLVO WS150</t>
+  </si>
+  <si>
+    <t>12 DE FEBRERO-26</t>
   </si>
 </sst>
 </file>
@@ -459,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -485,6 +452,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,7 +784,7 @@
   <dimension ref="B5:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,13 +801,13 @@
   <sheetData>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
@@ -848,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -857,46 +827,50 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="L6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="P6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
@@ -910,21 +884,17 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
@@ -938,21 +908,17 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
       <c r="L9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
@@ -967,9 +933,9 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,9 +952,9 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,9 +968,9 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +984,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1036,13 +1002,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1053,20 +1019,14 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1085,10 +1045,10 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1105,7 +1065,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -1118,10 +1078,10 @@
     </row>
     <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1136,14 +1096,14 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
@@ -1156,14 +1116,14 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
@@ -1176,14 +1136,14 @@
     </row>
     <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
@@ -1196,14 +1156,14 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
@@ -1216,14 +1176,12 @@
     </row>
     <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="15" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
@@ -1236,14 +1194,14 @@
     </row>
     <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
@@ -1256,14 +1214,14 @@
     </row>
     <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="15" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
@@ -1275,15 +1233,15 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="B26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
@@ -1295,15 +1253,15 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>52</v>
+      <c r="B27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
@@ -1315,15 +1273,13 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>56</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
@@ -1334,59 +1290,61 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="22" t="s">
-        <v>56</v>
+    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>63</v>
+      <c r="B30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>63</v>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>66</v>
+      <c r="B32" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
@@ -1394,14 +1352,14 @@
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
@@ -1409,29 +1367,29 @@
     </row>
     <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="19" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>75</v>
+      <c r="D35" s="18"/>
+      <c r="E35" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
@@ -1439,88 +1397,66 @@
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="19"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="E39" s="8"/>
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
